--- a/工作计划/燃气信息化系统计划2018-05-22.xlsx
+++ b/工作计划/燃气信息化系统计划2018-05-22.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>软件部分的工作思路：
 1. 主业务模块的功能一定要完善、健壮，满足燃气企业的日常运营，主要包括：
@@ -37,9 +37,6 @@
     <t>云呼叫系统</t>
   </si>
   <si>
-    <t>3. 来电处理时长、来话等待时长、操作状态统计等7个报表的联试；</t>
-  </si>
-  <si>
     <t>订单及配送系统</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>2. 硬件联试，数据接入；</t>
-  </si>
-  <si>
-    <t>3. 用户日使用气量计算（算法类问题）</t>
   </si>
   <si>
     <t>5. 气量不足告警；</t>
@@ -267,10 +261,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3. 报警工单系统的建立及流程处理；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 气站出入库管理APP；</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -283,7 +273,32 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4. 用户用气习惯（可结合不间断供气以图表形式显示气量变化情况）</t>
+    <t>1. 未接来电、已接来电统计报表；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 统计送气工送气的数量和规格，便于计算提成，不同规格钢瓶提成数额不一样；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 报修单、安检单的打印功能及打印机调试；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整改意见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 时间长度超过限制，应该弹出错误信息；
+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -291,19 +306,36 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1. 未接来电、已接来电统计报表；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>工作组在科天云那边没有对应接口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3. 来电处理时长、来话等待时长、操作状态统计等7个报表的联试；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 参数错误，应该弹出错误信息；
+2. 未找到部门的错误找科天云确认下;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印自定义边距(9.5mm, 8mm, 6.5mm,11mm)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择部门树应该在左边</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3. 增加按区域设置价格的功能。通过地区关键字判断。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 配送车，GPS设备自研还是采用政府的，需要硬件确认方案。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -323,11 +355,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2. 统计送气工送气的数量和规格，便于计算提成，不同规格钢瓶提成数额不一样；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 报修单、安检单的打印功能及打印机调试；</t>
+    <t>2. 配送车，GPS设备自研还是采用政府的，需要硬件确认方案。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 报警工单系统的建立及流程处理；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 用户日使用气量计算（算法类问题）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 用户用气习惯（可结合不间断供气以图表形式显示气量变化情况）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警处理交接记录，分页有问题！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,6 +503,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E51"/>
+  <dimension ref="B1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -773,198 +823,265 @@
     <col min="2" max="2" width="75.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="93.90625" customWidth="1"/>
     <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="60.1796875" customWidth="1"/>
     <col min="7" max="7" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="112" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="112" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="28" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="2:6" ht="28" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
       <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+      <c r="F7" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="13" t="s">
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="16" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:6" ht="56" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="5" t="s">
+      <c r="E26" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="8" t="s">
+      <c r="E29" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="17" t="s">
+      <c r="E30" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="17" t="s">
+      <c r="E31" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="17" t="s">
-        <v>17</v>
+      <c r="E32" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -972,95 +1089,95 @@
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="18"/>
+      <c r="C36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="18"/>
+      <c r="C37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="18"/>
+      <c r="C38" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="18"/>
+      <c r="C39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="10" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" t="s">
+    <row r="41" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="18"/>
+      <c r="C41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" t="s">
+    <row r="43" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="18"/>
+      <c r="C43" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="56" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
